--- a/domain11.xlsx
+++ b/domain11.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1028">
-  <si>
-    <t>ffp.xiamenair.com</t>
-  </si>
-  <si>
-    <t>厦门航空有限公司主页</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1157">
   <si>
     <t>news.chinaso.com.cdn20.com</t>
   </si>
@@ -3103,6 +3097,399 @@
   </si>
   <si>
     <t>gd.a.sohu.com</t>
+  </si>
+  <si>
+    <t>open.mb.hd.sohu.com</t>
+  </si>
+  <si>
+    <t>home.focus.cn</t>
+  </si>
+  <si>
+    <t>zhibo.m.sohu.com</t>
+  </si>
+  <si>
+    <t>v.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>business.sohu.com</t>
+  </si>
+  <si>
+    <t>css.sohu.com</t>
+  </si>
+  <si>
+    <t>s.m.sohu.com</t>
+  </si>
+  <si>
+    <t>m.2sc.sohu.com</t>
+  </si>
+  <si>
+    <t>api.m.sohu.com</t>
+  </si>
+  <si>
+    <t>qc.m.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>yule.sohu.com</t>
+  </si>
+  <si>
+    <t>fwh.a.sohu.com</t>
+  </si>
+  <si>
+    <t>it.sohu.com</t>
+  </si>
+  <si>
+    <t>search.vrs.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>mil.sohu.com</t>
+  </si>
+  <si>
+    <t>learning.sohu.com</t>
+  </si>
+  <si>
+    <t>www.focus.cn</t>
+  </si>
+  <si>
+    <t>health.sohu.com</t>
+  </si>
+  <si>
+    <t>geo.news.sohu.com</t>
+  </si>
+  <si>
+    <t>passport.sohu.com</t>
+  </si>
+  <si>
+    <t>baobao.sohu.com</t>
+  </si>
+  <si>
+    <t>fashion.sohu.com</t>
+  </si>
+  <si>
+    <t>hq.stock.sohu.com</t>
+  </si>
+  <si>
+    <t>chihe.sohu.com</t>
+  </si>
+  <si>
+    <t>cul.sohu.com</t>
+  </si>
+  <si>
+    <t>history.sohu.com</t>
+  </si>
+  <si>
+    <t>travel.sohu.com</t>
+  </si>
+  <si>
+    <t>astro.sohu.com</t>
+  </si>
+  <si>
+    <t>game.sohu.com</t>
+  </si>
+  <si>
+    <t>wuhan.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>fun.sohu.com</t>
+  </si>
+  <si>
+    <t>click2.hd.sohu.com</t>
+  </si>
+  <si>
+    <t>mail.sohu.com</t>
+  </si>
+  <si>
+    <t>zt.pinglun.sohu.com</t>
+  </si>
+  <si>
+    <t>db.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>push.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>hqm.stock.sohu.com</t>
+  </si>
+  <si>
+    <t>so.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>p.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>pop3.sohu.com</t>
+  </si>
+  <si>
+    <t>www.17173.com</t>
+  </si>
+  <si>
+    <t>vstat.my.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>dealer.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>q.stock.sohu.com</t>
+  </si>
+  <si>
+    <t>data.sports.sohu.com</t>
+  </si>
+  <si>
+    <t>blog.sohu.com</t>
+  </si>
+  <si>
+    <t>log1.17173.com</t>
+  </si>
+  <si>
+    <t>upgrade.m.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>um.hd.sohu.com</t>
+  </si>
+  <si>
+    <t>corp.sohu.com</t>
+  </si>
+  <si>
+    <t>js.17173.com</t>
+  </si>
+  <si>
+    <t>hr.sohu.com</t>
+  </si>
+  <si>
+    <t>esf.focus.cn</t>
+  </si>
+  <si>
+    <t>plus.sohu.com</t>
+  </si>
+  <si>
+    <t>share.vrs.sohu.com</t>
+  </si>
+  <si>
+    <t>cbachina.sports.sohu.com</t>
+  </si>
+  <si>
+    <t>wx.m.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>ad.sohu.com</t>
+  </si>
+  <si>
+    <t>search.vrs.sohu.com</t>
+  </si>
+  <si>
+    <t>tip.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>house.focus.cn</t>
+  </si>
+  <si>
+    <t>app.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>lm.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>pay.sohu.com</t>
+  </si>
+  <si>
+    <t>wh.focus.cn</t>
+  </si>
+  <si>
+    <t>roll.sohu.com</t>
+  </si>
+  <si>
+    <t>3g.k.sohu.com</t>
+  </si>
+  <si>
+    <t>cfg.mini.sohu.com</t>
+  </si>
+  <si>
+    <t>shangye.focus.cn</t>
+  </si>
+  <si>
+    <t>passport.17173.com</t>
+  </si>
+  <si>
+    <t>pv.focus.cn</t>
+  </si>
+  <si>
+    <t>lol.17173.com</t>
+  </si>
+  <si>
+    <t>help.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>m.yule.sohu.com</t>
+  </si>
+  <si>
+    <t>sohumx1.sohu.com</t>
+  </si>
+  <si>
+    <t>news.17173.com</t>
+  </si>
+  <si>
+    <t>sohumx2.sohu.com</t>
+  </si>
+  <si>
+    <t>js.mail.sohu.com</t>
+  </si>
+  <si>
+    <t>f7yd.a.sohu.com</t>
+  </si>
+  <si>
+    <t>m.so.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>imap.sohu.com</t>
+  </si>
+  <si>
+    <t>sns.k.sohu.com</t>
+  </si>
+  <si>
+    <t>comment.news.sohu.com</t>
+  </si>
+  <si>
+    <t>stock.sohu.com</t>
+  </si>
+  <si>
+    <t>women.sohu.com</t>
+  </si>
+  <si>
+    <t>chengdu.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>bbs.17173.com</t>
+  </si>
+  <si>
+    <t>nbadata.m.sohu.com</t>
+  </si>
+  <si>
+    <t>pm.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>tehui.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>v.17173.com</t>
+  </si>
+  <si>
+    <t>t.sohu.com</t>
+  </si>
+  <si>
+    <t>f.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>pad.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>fmg.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>dnf.17173.com</t>
+  </si>
+  <si>
+    <t>mil.news.sohu.com</t>
+  </si>
+  <si>
+    <t>p2p.vod.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>搜狐网</t>
+  </si>
+  <si>
+    <t>e.changyan.sohu.com</t>
+  </si>
+  <si>
+    <t>photocdn.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>msapi.t.sohu.com</t>
+  </si>
+  <si>
+    <t>passport.zhan.sohu.com</t>
+  </si>
+  <si>
+    <t>agn.aty.sohu.com</t>
+  </si>
+  <si>
+    <t>mp.sohu.com</t>
+  </si>
+  <si>
+    <t>m.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>img.mp.sohu.com</t>
+  </si>
+  <si>
+    <t>bd.hd.sohu.com</t>
+  </si>
+  <si>
+    <t>gdv.a.sohu.com</t>
+  </si>
+  <si>
+    <t>api.store.sohu.com</t>
+  </si>
+  <si>
+    <t>db.m.auto.sohu.com</t>
+  </si>
+  <si>
+    <t>m.film.sohu.com</t>
+  </si>
+  <si>
+    <t>888.tv.sohu.com</t>
+  </si>
+  <si>
+    <t>mt.sohu.com</t>
+  </si>
+  <si>
+    <t>film.sohu.com</t>
+  </si>
+  <si>
+    <t>nc1.gs.a.sohu.com</t>
+  </si>
+  <si>
+    <t>usa.gd.a.sohu.com</t>
+  </si>
+  <si>
+    <t>tip.soku.com</t>
+  </si>
+  <si>
+    <t>搜库</t>
+  </si>
+  <si>
+    <t>static.soku.com</t>
+  </si>
+  <si>
+    <t>tip.tudou.soku.com</t>
+  </si>
+  <si>
+    <t>www.soulady.net</t>
+  </si>
+  <si>
+    <t>搜女郎</t>
+  </si>
+  <si>
+    <t>m.sopanpan.com</t>
+  </si>
+  <si>
+    <t>搜盘盘</t>
+  </si>
+  <si>
+    <t>m.tvsou.com</t>
+  </si>
+  <si>
+    <t>搜视网</t>
+  </si>
+  <si>
+    <t>img.tvsou.com</t>
+  </si>
+  <si>
+    <t>www.tvsou.com</t>
+  </si>
+  <si>
+    <t>m.souutu.com</t>
+  </si>
+  <si>
+    <t>搜优图网</t>
   </si>
 </sst>
 </file>
@@ -3427,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="M934" sqref="M934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3448,31 +3835,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3480,15 +3867,15 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3496,15 +3883,15 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3536,15 +3923,15 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3576,23 +3963,23 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3640,39 +4027,39 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3744,23 +4131,23 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3800,63 +4187,63 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
         <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3888,31 +4275,31 @@
         <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
         <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3928,55 +4315,55 @@
         <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" t="s">
         <v>105</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4008,31 +4395,31 @@
         <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
         <v>116</v>
-      </c>
-      <c r="B75" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4040,23 +4427,23 @@
         <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
         <v>120</v>
-      </c>
-      <c r="B78" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4104,23 +4491,23 @@
         <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
         <v>134</v>
-      </c>
-      <c r="B86" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4128,463 +4515,463 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" t="s">
         <v>193</v>
-      </c>
-      <c r="B144" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4592,15 +4979,15 @@
         <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>195</v>
+      </c>
+      <c r="B146" t="s">
         <v>196</v>
-      </c>
-      <c r="B146" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4664,15 +5051,15 @@
         <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>212</v>
+      </c>
+      <c r="B155" t="s">
         <v>213</v>
-      </c>
-      <c r="B155" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4688,31 +5075,31 @@
         <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" t="s">
         <v>220</v>
-      </c>
-      <c r="B160" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4736,23 +5123,23 @@
         <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B165" t="s">
         <v>228</v>
-      </c>
-      <c r="B165" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4760,63 +5147,63 @@
         <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B172" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" t="s">
         <v>237</v>
-      </c>
-      <c r="B173" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4832,47 +5219,47 @@
         <v>240</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>245</v>
+      </c>
+      <c r="B180" t="s">
         <v>246</v>
-      </c>
-      <c r="B180" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4888,79 +5275,79 @@
         <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B186" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B188" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>258</v>
+      </c>
+      <c r="B191" t="s">
         <v>259</v>
-      </c>
-      <c r="B191" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -4968,15 +5355,15 @@
         <v>260</v>
       </c>
       <c r="B192" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>261</v>
+      </c>
+      <c r="B193" t="s">
         <v>262</v>
-      </c>
-      <c r="B193" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -4984,71 +5371,71 @@
         <v>263</v>
       </c>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B195" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B196" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B198" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B199" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B200" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B201" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>271</v>
+      </c>
+      <c r="B202" t="s">
         <v>272</v>
-      </c>
-      <c r="B202" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5064,95 +5451,95 @@
         <v>275</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B208" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B211" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B213" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B214" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="B215" t="s">
         <v>287</v>
-      </c>
-      <c r="B215" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5160,39 +5547,39 @@
         <v>288</v>
       </c>
       <c r="B216" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B217" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B219" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" t="s">
         <v>293</v>
-      </c>
-      <c r="B220" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5200,47 +5587,47 @@
         <v>294</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B222" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B223" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B224" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B225" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>299</v>
+      </c>
+      <c r="B226" t="s">
         <v>300</v>
-      </c>
-      <c r="B226" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5248,23 +5635,23 @@
         <v>301</v>
       </c>
       <c r="B227" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B228" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" t="s">
         <v>304</v>
-      </c>
-      <c r="B229" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5312,23 +5699,23 @@
         <v>315</v>
       </c>
       <c r="B235" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B236" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>317</v>
+      </c>
+      <c r="B237" t="s">
         <v>318</v>
-      </c>
-      <c r="B237" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5336,23 +5723,23 @@
         <v>319</v>
       </c>
       <c r="B238" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B239" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>321</v>
+      </c>
+      <c r="B240" t="s">
         <v>322</v>
-      </c>
-      <c r="B240" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5368,15 +5755,15 @@
         <v>325</v>
       </c>
       <c r="B242" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>326</v>
+      </c>
+      <c r="B243" t="s">
         <v>327</v>
-      </c>
-      <c r="B243" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5400,55 +5787,55 @@
         <v>332</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B250" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>338</v>
+      </c>
+      <c r="B252" t="s">
         <v>339</v>
-      </c>
-      <c r="B252" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5464,23 +5851,23 @@
         <v>342</v>
       </c>
       <c r="B254" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B255" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>344</v>
+      </c>
+      <c r="B256" t="s">
         <v>345</v>
-      </c>
-      <c r="B256" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5488,71 +5875,71 @@
         <v>346</v>
       </c>
       <c r="B257" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B258" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B260" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B261" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B262" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B263" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B264" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>354</v>
+      </c>
+      <c r="B265" t="s">
         <v>355</v>
-      </c>
-      <c r="B265" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5640,23 +6027,23 @@
         <v>376</v>
       </c>
       <c r="B276" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B277" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>378</v>
+      </c>
+      <c r="B278" t="s">
         <v>379</v>
-      </c>
-      <c r="B278" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5680,15 +6067,15 @@
         <v>384</v>
       </c>
       <c r="B281" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>385</v>
+      </c>
+      <c r="B282" t="s">
         <v>386</v>
-      </c>
-      <c r="B282" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5704,15 +6091,15 @@
         <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>390</v>
+      </c>
+      <c r="B285" t="s">
         <v>391</v>
-      </c>
-      <c r="B285" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5776,23 +6163,23 @@
         <v>406</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B294" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>408</v>
+      </c>
+      <c r="B295" t="s">
         <v>409</v>
-      </c>
-      <c r="B295" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5808,31 +6195,31 @@
         <v>412</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B298" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>415</v>
+      </c>
+      <c r="B300" t="s">
         <v>416</v>
-      </c>
-      <c r="B300" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5856,15 +6243,15 @@
         <v>421</v>
       </c>
       <c r="B303" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>422</v>
+      </c>
+      <c r="B304" t="s">
         <v>423</v>
-      </c>
-      <c r="B304" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5896,15 +6283,15 @@
         <v>430</v>
       </c>
       <c r="B308" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>431</v>
+      </c>
+      <c r="B309" t="s">
         <v>432</v>
-      </c>
-      <c r="B309" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -5928,15 +6315,15 @@
         <v>437</v>
       </c>
       <c r="B312" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>438</v>
+      </c>
+      <c r="B313" t="s">
         <v>439</v>
-      </c>
-      <c r="B313" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -5944,23 +6331,23 @@
         <v>440</v>
       </c>
       <c r="B314" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B315" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>442</v>
+      </c>
+      <c r="B316" t="s">
         <v>443</v>
-      </c>
-      <c r="B316" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -5968,15 +6355,15 @@
         <v>444</v>
       </c>
       <c r="B317" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>445</v>
+      </c>
+      <c r="B318" t="s">
         <v>446</v>
-      </c>
-      <c r="B318" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -5984,23 +6371,23 @@
         <v>447</v>
       </c>
       <c r="B319" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B320" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>449</v>
+      </c>
+      <c r="B321" t="s">
         <v>450</v>
-      </c>
-      <c r="B321" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6008,31 +6395,31 @@
         <v>451</v>
       </c>
       <c r="B322" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B323" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B324" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>454</v>
+      </c>
+      <c r="B325" t="s">
         <v>455</v>
-      </c>
-      <c r="B325" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6040,23 +6427,23 @@
         <v>456</v>
       </c>
       <c r="B326" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B327" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>458</v>
+      </c>
+      <c r="B328" t="s">
         <v>459</v>
-      </c>
-      <c r="B328" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6128,55 +6515,55 @@
         <v>476</v>
       </c>
       <c r="B337" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B338" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B339" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B340" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B341" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B342" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>482</v>
+      </c>
+      <c r="B343" t="s">
         <v>483</v>
-      </c>
-      <c r="B343" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6184,39 +6571,39 @@
         <v>484</v>
       </c>
       <c r="B344" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B345" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B346" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B347" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>488</v>
+      </c>
+      <c r="B348" t="s">
         <v>489</v>
-      </c>
-      <c r="B348" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6224,15 +6611,15 @@
         <v>490</v>
       </c>
       <c r="B349" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>491</v>
+      </c>
+      <c r="B350" t="s">
         <v>492</v>
-      </c>
-      <c r="B350" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6240,31 +6627,31 @@
         <v>493</v>
       </c>
       <c r="B351" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B352" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B353" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>496</v>
+      </c>
+      <c r="B354" t="s">
         <v>497</v>
-      </c>
-      <c r="B354" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6280,23 +6667,23 @@
         <v>500</v>
       </c>
       <c r="B356" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>502</v>
+      </c>
+      <c r="B358" t="s">
         <v>503</v>
-      </c>
-      <c r="B358" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6304,39 +6691,39 @@
         <v>504</v>
       </c>
       <c r="B359" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B360" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B361" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B362" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>508</v>
+      </c>
+      <c r="B363" t="s">
         <v>509</v>
-      </c>
-      <c r="B363" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6344,31 +6731,31 @@
         <v>510</v>
       </c>
       <c r="B364" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B365" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B366" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>513</v>
+      </c>
+      <c r="B367" t="s">
         <v>514</v>
-      </c>
-      <c r="B367" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6376,119 +6763,119 @@
         <v>515</v>
       </c>
       <c r="B368" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B369" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B371" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B373" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B374" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B375" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B376" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B377" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B378" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B379" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B380" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B381" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>529</v>
+      </c>
+      <c r="B382" t="s">
         <v>530</v>
-      </c>
-      <c r="B382" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6520,15 +6907,15 @@
         <v>537</v>
       </c>
       <c r="B386" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
+        <v>538</v>
+      </c>
+      <c r="B387" t="s">
         <v>539</v>
-      </c>
-      <c r="B387" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6536,31 +6923,31 @@
         <v>540</v>
       </c>
       <c r="B388" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B389" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B390" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
+        <v>543</v>
+      </c>
+      <c r="B391" t="s">
         <v>544</v>
-      </c>
-      <c r="B391" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6576,23 +6963,23 @@
         <v>547</v>
       </c>
       <c r="B393" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B394" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
+        <v>549</v>
+      </c>
+      <c r="B395" t="s">
         <v>550</v>
-      </c>
-      <c r="B395" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6608,111 +6995,111 @@
         <v>553</v>
       </c>
       <c r="B397" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B398" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B399" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B400" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B401" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B402" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B403" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B404" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B405" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B406" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B407" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B408" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>566</v>
+      </c>
+      <c r="B410" t="s">
         <v>567</v>
-      </c>
-      <c r="B410" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6776,23 +7163,23 @@
         <v>582</v>
       </c>
       <c r="B418" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B419" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>584</v>
+      </c>
+      <c r="B420" t="s">
         <v>585</v>
-      </c>
-      <c r="B420" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6800,31 +7187,31 @@
         <v>586</v>
       </c>
       <c r="B421" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B422" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B423" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>589</v>
+      </c>
+      <c r="B424" t="s">
         <v>590</v>
-      </c>
-      <c r="B424" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6832,15 +7219,15 @@
         <v>591</v>
       </c>
       <c r="B425" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
+        <v>592</v>
+      </c>
+      <c r="B426" t="s">
         <v>593</v>
-      </c>
-      <c r="B426" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6848,23 +7235,23 @@
         <v>594</v>
       </c>
       <c r="B427" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B428" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>596</v>
+      </c>
+      <c r="B429" t="s">
         <v>597</v>
-      </c>
-      <c r="B429" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6872,127 +7259,127 @@
         <v>598</v>
       </c>
       <c r="B430" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B431" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B432" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B433" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B434" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B435" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B436" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B437" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B438" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B439" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B440" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B441" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B442" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B443" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B444" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>613</v>
+      </c>
+      <c r="B445" t="s">
         <v>614</v>
-      </c>
-      <c r="B445" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7040,15 +7427,15 @@
         <v>625</v>
       </c>
       <c r="B451" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>626</v>
+      </c>
+      <c r="B452" t="s">
         <v>627</v>
-      </c>
-      <c r="B452" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7056,15 +7443,15 @@
         <v>628</v>
       </c>
       <c r="B453" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
+        <v>629</v>
+      </c>
+      <c r="B454" t="s">
         <v>630</v>
-      </c>
-      <c r="B454" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7080,15 +7467,15 @@
         <v>633</v>
       </c>
       <c r="B456" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>634</v>
+      </c>
+      <c r="B457" t="s">
         <v>635</v>
-      </c>
-      <c r="B457" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7104,15 +7491,15 @@
         <v>638</v>
       </c>
       <c r="B459" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
+        <v>639</v>
+      </c>
+      <c r="B460" t="s">
         <v>640</v>
-      </c>
-      <c r="B460" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7120,31 +7507,31 @@
         <v>641</v>
       </c>
       <c r="B461" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B462" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B463" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
+        <v>644</v>
+      </c>
+      <c r="B464" t="s">
         <v>645</v>
-      </c>
-      <c r="B464" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7152,15 +7539,15 @@
         <v>646</v>
       </c>
       <c r="B465" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
+        <v>647</v>
+      </c>
+      <c r="B466" t="s">
         <v>648</v>
-      </c>
-      <c r="B466" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7192,31 +7579,31 @@
         <v>655</v>
       </c>
       <c r="B470" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B471" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B472" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
+        <v>658</v>
+      </c>
+      <c r="B473" t="s">
         <v>659</v>
-      </c>
-      <c r="B473" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7232,15 +7619,15 @@
         <v>662</v>
       </c>
       <c r="B475" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
+        <v>663</v>
+      </c>
+      <c r="B476" t="s">
         <v>664</v>
-      </c>
-      <c r="B476" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7256,23 +7643,23 @@
         <v>667</v>
       </c>
       <c r="B478" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B479" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
+        <v>669</v>
+      </c>
+      <c r="B480" t="s">
         <v>670</v>
-      </c>
-      <c r="B480" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7280,47 +7667,47 @@
         <v>671</v>
       </c>
       <c r="B481" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B482" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B483" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B484" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B485" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
+        <v>676</v>
+      </c>
+      <c r="B486" t="s">
         <v>677</v>
-      </c>
-      <c r="B486" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7328,15 +7715,15 @@
         <v>678</v>
       </c>
       <c r="B487" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
+        <v>679</v>
+      </c>
+      <c r="B488" t="s">
         <v>680</v>
-      </c>
-      <c r="B488" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7376,47 +7763,47 @@
         <v>689</v>
       </c>
       <c r="B493" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B494" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B495" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B496" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B497" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>694</v>
+      </c>
+      <c r="B498" t="s">
         <v>695</v>
-      </c>
-      <c r="B498" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7424,15 +7811,15 @@
         <v>696</v>
       </c>
       <c r="B499" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
+        <v>697</v>
+      </c>
+      <c r="B500" t="s">
         <v>698</v>
-      </c>
-      <c r="B500" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7488,15 +7875,15 @@
         <v>711</v>
       </c>
       <c r="B507" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>712</v>
+      </c>
+      <c r="B508" t="s">
         <v>713</v>
-      </c>
-      <c r="B508" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7504,15 +7891,15 @@
         <v>714</v>
       </c>
       <c r="B509" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
+        <v>715</v>
+      </c>
+      <c r="B510" t="s">
         <v>716</v>
-      </c>
-      <c r="B510" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7528,55 +7915,55 @@
         <v>719</v>
       </c>
       <c r="B512" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B513" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B514" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B515" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B516" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B517" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
+        <v>725</v>
+      </c>
+      <c r="B518" t="s">
         <v>726</v>
-      </c>
-      <c r="B518" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7592,15 +7979,15 @@
         <v>729</v>
       </c>
       <c r="B520" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
+        <v>730</v>
+      </c>
+      <c r="B521" t="s">
         <v>731</v>
-      </c>
-      <c r="B521" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -7616,31 +8003,31 @@
         <v>734</v>
       </c>
       <c r="B523" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B524" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B525" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
+        <v>737</v>
+      </c>
+      <c r="B526" t="s">
         <v>738</v>
-      </c>
-      <c r="B526" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -7672,23 +8059,23 @@
         <v>745</v>
       </c>
       <c r="B530" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B531" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
+        <v>747</v>
+      </c>
+      <c r="B532" t="s">
         <v>748</v>
-      </c>
-      <c r="B532" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -7720,23 +8107,23 @@
         <v>755</v>
       </c>
       <c r="B536" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B537" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B538" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -7744,1359 +8131,1359 @@
         <v>759</v>
       </c>
       <c r="B539" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B540" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B541" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B542" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B543" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B544" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B545" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B546" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B547" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B548" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B549" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B550" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B551" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B552" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B553" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B554" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B555" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B556" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B557" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B558" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B559" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B560" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B561" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B562" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B563" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B564" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B565" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B566" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B567" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B568" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B569" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B570" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B571" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B572" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B573" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B574" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B575" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B576" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B577" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B578" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B579" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B580" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B581" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B582" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B583" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B584" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B585" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B586" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B587" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B588" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B589" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B590" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B591" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B592" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B593" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B594" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B595" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B596" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B597" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B598" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B599" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B600" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B601" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B602" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B603" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B604" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B605" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B606" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B607" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B608" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B609" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B610" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B611" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B612" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B613" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B614" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B615" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B616" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B617" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B618" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B619" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B620" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B621" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B622" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B623" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B624" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B625" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B626" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B627" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B628" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B629" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B630" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B631" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B632" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B633" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B634" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B635" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B636" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B637" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B638" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B639" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B640" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B641" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B642" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B643" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B644" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B645" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B646" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B647" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B648" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B649" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B650" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B651" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B652" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B653" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B654" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B655" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B656" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B657" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B658" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B659" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B660" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B661" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B662" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B663" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B664" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B665" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B666" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B667" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B668" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B669" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B670" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B671" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B672" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B673" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B674" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B675" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B676" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B677" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B678" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B679" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B680" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B681" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B682" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B683" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B684" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B685" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B686" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B687" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B688" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B689" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B690" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B691" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B692" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B693" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B694" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B695" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B696" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B697" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B698" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B699" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B700" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B701" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B702" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B703" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B704" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B705" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B706" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B707" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
+        <v>928</v>
+      </c>
+      <c r="B708" t="s">
         <v>929</v>
-      </c>
-      <c r="B708" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -9104,367 +9491,367 @@
         <v>930</v>
       </c>
       <c r="B709" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B710" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B711" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B712" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B713" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B714" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B715" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B716" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B717" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B718" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B719" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B720" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B721" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B722" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B723" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B724" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B725" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B726" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B727" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B728" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B729" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B730" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B731" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B732" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B733" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B734" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B735" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B736" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B737" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B738" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B739" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B740" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B741" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B742" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B743" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B744" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B745" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B746" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B747" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B748" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B749" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B750" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B751" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B752" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B753" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B754" t="s">
-        <v>931</v>
+        <v>976</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -9472,399 +9859,1391 @@
         <v>977</v>
       </c>
       <c r="B755" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B756" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B757" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B758" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B759" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B760" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B761" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B762" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B763" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B764" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B765" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B766" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B767" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B768" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B769" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B770" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B771" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B772" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B773" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B774" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B775" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B776" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B777" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B778" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B779" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B780" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B781" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B782" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B783" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B784" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B785" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B786" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B787" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B788" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B789" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B790" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B791" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B792" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B793" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B794" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B795" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B796" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B797" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B798" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B799" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B800" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B801" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B802" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B803" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B804" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
         <v>1027</v>
       </c>
-      <c r="B804" t="s">
-        <v>978</v>
+      <c r="B805" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B806" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B807" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B808" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B809" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B810" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B811" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B812" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B813" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B814" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B815" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B816" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B817" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B818" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B819" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B820" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B821" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B822" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B823" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B824" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B825" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B826" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B827" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B828" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B829" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B830" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B831" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B832" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B833" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B834" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B835" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B836" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B837" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B838" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B839" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B840" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B841" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B842" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B843" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B844" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B845" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B846" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B847" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B848" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B849" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B850" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B851" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B852" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B853" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B854" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B855" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B856" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B857" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B858" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B859" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B860" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B861" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B862" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B863" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B864" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B865" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B866" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B867" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B868" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B869" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B870" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B871" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B872" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B873" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B874" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B875" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B876" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B877" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B878" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B879" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B880" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B881" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B882" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B883" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B884" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B885" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B886" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B887" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B888" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B889" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B890" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B891" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B892" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B893" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B894" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B895" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B896" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B897" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B898" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B899" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B900" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
